--- a/fom2425hw1_results.xlsx
+++ b/fom2425hw1_results.xlsx
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="D2" t="n">
-        <v>9.479166666666666</v>
+        <v>8.571428571428571</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -537,18 +537,14 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>PuLP: Error while trying to execute glpsol</t>
-        </is>
-      </c>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
         <v>0</v>
       </c>

--- a/fom2425hw1_results.xlsx
+++ b/fom2425hw1_results.xlsx
@@ -525,23 +525,23 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="D2" t="n">
-        <v>8.571428571428571</v>
+        <v>8.037383177570094</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 1, 1, 1]</t>
+          <t>[0, 1, 0, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>

--- a/fom2425hw1_results.xlsx
+++ b/fom2425hw1_results.xlsx
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="D2" t="n">
-        <v>8.037383177570094</v>
+        <v>7.131782945736434</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -546,14 +546,14 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 1]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>

--- a/fom2425hw1_results.xlsx
+++ b/fom2425hw1_results.xlsx
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>7.131782945736434</v>
+        <v>6.114649681528662</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -558,14 +558,14 @@
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>574</v>
+        <v>461</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1, 2, 1, 2, 1, 2, 1]</t>
+          <t>[0, 1, 2, 1, 0, 2, 0]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>

--- a/fom2425hw1_results.xlsx
+++ b/fom2425hw1_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,14 +521,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fom2425hw1</t>
+          <t>Assignmnet1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>6.114649681528662</v>
+        <v>6.089743589743589</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -569,6 +569,73 @@
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>auto_grader_assignment1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.238095238095237</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>module 'auto_grader_assignment1' has no attribute 'lsp1'</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>module 'auto_grader_assignment1' has no attribute 'lsp2'</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>module 'auto_grader_assignment1' has no attribute 'lsp3'</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
